--- a/sfe_322/GVFs/width_5m_100m_0p50m_max_width_diff.xlsx
+++ b/sfe_322/GVFs/width_5m_100m_0p50m_max_width_diff.xlsx
@@ -471,10 +471,10 @@
         <v>999.958</v>
       </c>
       <c r="D2" t="n">
-        <v>1004.658</v>
+        <v>1000.708</v>
       </c>
       <c r="E2" t="n">
-        <v>55.0327337285724</v>
+        <v>10.83831538109743</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -491,10 +491,10 @@
         <v>999.8117</v>
       </c>
       <c r="D3" t="n">
-        <v>1004.6617</v>
+        <v>1000.6717</v>
       </c>
       <c r="E3" t="n">
-        <v>54.70955219198959</v>
+        <v>12.10972398370148</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>999.7568</v>
       </c>
       <c r="D4" t="n">
-        <v>1004.7068</v>
+        <v>1000.4868</v>
       </c>
       <c r="E4" t="n">
-        <v>54.66447235660264</v>
+        <v>8.302875549218154</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>999.4367999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>1004.6868</v>
+        <v>1000.3668</v>
       </c>
       <c r="E5" t="n">
-        <v>54.56875554249068</v>
+        <v>7.581024962225452</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>999.3564</v>
       </c>
       <c r="D6" t="n">
-        <v>1004.7064</v>
+        <v>1000.3064</v>
       </c>
       <c r="E6" t="n">
-        <v>55.14827416912154</v>
+        <v>9.02453766257193</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>999.4218</v>
       </c>
       <c r="D7" t="n">
-        <v>1004.7218</v>
+        <v>1000.2118</v>
       </c>
       <c r="E7" t="n">
-        <v>55.31057276289432</v>
+        <v>7.978533628969338</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>999.5343</v>
       </c>
       <c r="D8" t="n">
-        <v>1004.6843</v>
+        <v>1000.0343</v>
       </c>
       <c r="E8" t="n">
-        <v>53.25810988577763</v>
+        <v>7.891609993899642</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>999.614</v>
       </c>
       <c r="D9" t="n">
-        <v>1004.714</v>
+        <v>999.984</v>
       </c>
       <c r="E9" t="n">
-        <v>52.83409578111385</v>
+        <v>8.360239039754802</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>999.5099</v>
       </c>
       <c r="D10" t="n">
-        <v>1003.3599</v>
+        <v>999.9099</v>
       </c>
       <c r="E10" t="n">
-        <v>43.92812937133603</v>
+        <v>14.68399290176841</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>999.4094</v>
       </c>
       <c r="D11" t="n">
-        <v>1004.7094</v>
+        <v>999.7194</v>
       </c>
       <c r="E11" t="n">
-        <v>53.99830633190558</v>
+        <v>8.626120835015843</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>999.4344</v>
       </c>
       <c r="D12" t="n">
-        <v>1004.6844</v>
+        <v>999.4544</v>
       </c>
       <c r="E12" t="n">
-        <v>53.58704770508328</v>
+        <v>1.397341907716871</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>999.1024</v>
       </c>
       <c r="D13" t="n">
-        <v>1004.6524</v>
+        <v>999.4424</v>
       </c>
       <c r="E13" t="n">
-        <v>52.23693866146671</v>
+        <v>6.821511563211853</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>999.0361</v>
       </c>
       <c r="D14" t="n">
-        <v>1004.7361</v>
+        <v>999.4061</v>
       </c>
       <c r="E14" t="n">
-        <v>52.18315461866108</v>
+        <v>6.023805640649066</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -731,10 +731,10 @@
         <v>999.0683</v>
       </c>
       <c r="D15" t="n">
-        <v>1004.6683</v>
+        <v>999.2683000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>51.58081797926094</v>
+        <v>4.426386330400515</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>999.0001999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>1004.7002</v>
+        <v>999.5301999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>50.03959313392359</v>
+        <v>8.369954963580795</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>998.9062</v>
       </c>
       <c r="D17" t="n">
-        <v>1004.7062</v>
+        <v>1004.9162</v>
       </c>
       <c r="E17" t="n">
-        <v>48.68944891573408</v>
+        <v>50.6177795228038</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>998.7528</v>
       </c>
       <c r="D18" t="n">
-        <v>1004.0028</v>
+        <v>998.9628</v>
       </c>
       <c r="E18" t="n">
-        <v>43.94012547191537</v>
+        <v>4.155673759052064</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>998.6819</v>
       </c>
       <c r="D19" t="n">
-        <v>1004.6319</v>
+        <v>1004.9119</v>
       </c>
       <c r="E19" t="n">
-        <v>52.87397619554039</v>
+        <v>55.7848182862076</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>998.2814</v>
       </c>
       <c r="D20" t="n">
-        <v>1003.8314</v>
+        <v>1004.9214</v>
       </c>
       <c r="E20" t="n">
-        <v>47.74097621102995</v>
+        <v>62.01018275987593</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>998.1075</v>
       </c>
       <c r="D21" t="n">
-        <v>1002.6075</v>
+        <v>1004.9175</v>
       </c>
       <c r="E21" t="n">
-        <v>43.90812791225006</v>
+        <v>65.76972177198012</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>997.6143</v>
       </c>
       <c r="D22" t="n">
-        <v>1002.2143</v>
+        <v>997.6642999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>44.04329087086879</v>
+        <v>1.734600754476631</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>996.6952</v>
       </c>
       <c r="D23" t="n">
-        <v>1002.0952</v>
+        <v>999.6652</v>
       </c>
       <c r="E23" t="n">
-        <v>44.1527619785281</v>
+        <v>25.41200400464401</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>996.7526</v>
       </c>
       <c r="D24" t="n">
-        <v>1002.2526</v>
+        <v>998.1626</v>
       </c>
       <c r="E24" t="n">
-        <v>44.97409289886806</v>
+        <v>21.63681664486171</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -931,10 +931,10 @@
         <v>997.1539</v>
       </c>
       <c r="D25" t="n">
-        <v>1002.0039</v>
+        <v>997.6539</v>
       </c>
       <c r="E25" t="n">
-        <v>45.62982228119948</v>
+        <v>13.95081892402073</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -951,10 +951,10 @@
         <v>997.3643</v>
       </c>
       <c r="D26" t="n">
-        <v>1001.7643</v>
+        <v>997.7043</v>
       </c>
       <c r="E26" t="n">
-        <v>47.05565182760645</v>
+        <v>4.973191921788931</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>997.5272</v>
       </c>
       <c r="D27" t="n">
-        <v>1001.8272</v>
+        <v>997.9571999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>51.05749994006695</v>
+        <v>6.91896048426926</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -991,10 +991,10 @@
         <v>997.357</v>
       </c>
       <c r="D28" t="n">
-        <v>1002.157</v>
+        <v>997.937</v>
       </c>
       <c r="E28" t="n">
-        <v>47.86438634924789</v>
+        <v>7.852626632134331</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>997.4615</v>
       </c>
       <c r="D29" t="n">
-        <v>1003.2115</v>
+        <v>997.7515</v>
       </c>
       <c r="E29" t="n">
-        <v>60.08754293638642</v>
+        <v>4.838832397332755</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>997.876</v>
       </c>
       <c r="D30" t="n">
-        <v>1001.526</v>
+        <v>998.226</v>
       </c>
       <c r="E30" t="n">
-        <v>45.48873493027531</v>
+        <v>13.81991536073916</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         <v>998.1124</v>
       </c>
       <c r="D31" t="n">
-        <v>1001.6624</v>
+        <v>998.1824</v>
       </c>
       <c r="E31" t="n">
-        <v>46.98767510771305</v>
+        <v>6.466769849232254</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>998.2191</v>
       </c>
       <c r="D32" t="n">
-        <v>1001.5691</v>
+        <v>998.9691</v>
       </c>
       <c r="E32" t="n">
-        <v>44.5709814837135</v>
+        <v>17.99751262511586</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>998.2422</v>
       </c>
       <c r="D33" t="n">
-        <v>1001.4922</v>
+        <v>1001.4522</v>
       </c>
       <c r="E33" t="n">
-        <v>47.44264692619092</v>
+        <v>42.82467585460209</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>998.5552</v>
       </c>
       <c r="D34" t="n">
-        <v>1001.4552</v>
+        <v>1001.4852</v>
       </c>
       <c r="E34" t="n">
-        <v>45.89138845956046</v>
+        <v>46.48259235360157</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>998.5662</v>
       </c>
       <c r="D35" t="n">
-        <v>1001.4162</v>
+        <v>1001.4362</v>
       </c>
       <c r="E35" t="n">
-        <v>47.6550377833162</v>
+        <v>47.95215343830299</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>998.2877</v>
       </c>
       <c r="D36" t="n">
-        <v>1001.4377</v>
+        <v>1001.3477</v>
       </c>
       <c r="E36" t="n">
-        <v>49.50958798619419</v>
+        <v>40.48959157601328</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>998.2936</v>
       </c>
       <c r="D37" t="n">
-        <v>1001.4936</v>
+        <v>1001.4636</v>
       </c>
       <c r="E37" t="n">
-        <v>49.93383497642075</v>
+        <v>42.4938288752849</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>998.1715</v>
       </c>
       <c r="D38" t="n">
-        <v>1001.4215</v>
+        <v>1001.4515</v>
       </c>
       <c r="E38" t="n">
-        <v>44.38403638241063</v>
+        <v>44.68121268186108</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         <v>997.79</v>
       </c>
       <c r="D39" t="n">
-        <v>1001.44</v>
+        <v>1001.45</v>
       </c>
       <c r="E39" t="n">
-        <v>44.79186575177413</v>
+        <v>44.87951190975512</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>997.3333</v>
       </c>
       <c r="D40" t="n">
-        <v>1001.4833</v>
+        <v>1001.5133</v>
       </c>
       <c r="E40" t="n">
-        <v>44.56924152273357</v>
+        <v>44.85769561468559</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>997.0636</v>
       </c>
       <c r="D41" t="n">
-        <v>1001.5636</v>
+        <v>1001.5836</v>
       </c>
       <c r="E41" t="n">
-        <v>46.98242908050667</v>
+        <v>47.1900995702281</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>996.4094</v>
       </c>
       <c r="D42" t="n">
-        <v>1001.3594</v>
+        <v>1001.3794</v>
       </c>
       <c r="E42" t="n">
-        <v>45.25073449390003</v>
+        <v>45.50156286469509</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>996.1007</v>
       </c>
       <c r="D43" t="n">
-        <v>1001.3507</v>
+        <v>1001.4907</v>
       </c>
       <c r="E43" t="n">
-        <v>46.24094498190502</v>
+        <v>51.242338140494</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>995.3508</v>
       </c>
       <c r="D44" t="n">
-        <v>1001.4008</v>
+        <v>1001.3508</v>
       </c>
       <c r="E44" t="n">
-        <v>53.69673314181402</v>
+        <v>39.33675758996721</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>994.9699000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>1001.8699</v>
+        <v>1001.4599</v>
       </c>
       <c r="E45" t="n">
-        <v>45.4256248332744</v>
+        <v>29.9204153469366</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>994.671</v>
       </c>
       <c r="D46" t="n">
-        <v>1004.721</v>
+        <v>1001.541</v>
       </c>
       <c r="E46" t="n">
-        <v>63.72184315192798</v>
+        <v>30.71937815967799</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -1371,10 +1371,10 @@
         <v>994.6616</v>
       </c>
       <c r="D47" t="n">
-        <v>1001.9616</v>
+        <v>1001.2816</v>
       </c>
       <c r="E47" t="n">
-        <v>44.17519210787761</v>
+        <v>30.27704609905542</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>994.9538</v>
       </c>
       <c r="D48" t="n">
-        <v>1001.7538</v>
+        <v>1004.9238</v>
       </c>
       <c r="E48" t="n">
-        <v>44.06831031944827</v>
+        <v>64.35079984989621</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>995.0243</v>
       </c>
       <c r="D49" t="n">
-        <v>1001.6243</v>
+        <v>1004.9243</v>
       </c>
       <c r="E49" t="n">
-        <v>44.03956895899888</v>
+        <v>67.62478258716355</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>995.4167</v>
       </c>
       <c r="D50" t="n">
-        <v>1001.7667</v>
+        <v>1001.3067</v>
       </c>
       <c r="E50" t="n">
-        <v>46.50490259934777</v>
+        <v>40.33177625794502</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>995.1736</v>
       </c>
       <c r="D51" t="n">
-        <v>1001.6236</v>
+        <v>1004.9336</v>
       </c>
       <c r="E51" t="n">
-        <v>43.93588079711884</v>
+        <v>66.60536279777489</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>996.0488</v>
       </c>
       <c r="D52" t="n">
-        <v>1001.2988</v>
+        <v>1001.2688</v>
       </c>
       <c r="E52" t="n">
-        <v>44.55220495936715</v>
+        <v>40.49771447374191</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>995.7929</v>
       </c>
       <c r="D53" t="n">
-        <v>1001.5429</v>
+        <v>1004.9329</v>
       </c>
       <c r="E53" t="n">
-        <v>44.45942430220663</v>
+        <v>72.6965483719685</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -1511,10 +1511,10 @@
         <v>995.7852</v>
       </c>
       <c r="D54" t="n">
-        <v>1001.8852</v>
+        <v>1004.9352</v>
       </c>
       <c r="E54" t="n">
-        <v>46.19660732205323</v>
+        <v>66.31448908614166</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>996.0102000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>1001.8602</v>
+        <v>1004.9302</v>
       </c>
       <c r="E55" t="n">
-        <v>45.06962543229361</v>
+        <v>65.88886013234185</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>995.934</v>
       </c>
       <c r="D56" t="n">
-        <v>1004.734</v>
+        <v>1004.864</v>
       </c>
       <c r="E56" t="n">
-        <v>62.05418133637784</v>
+        <v>63.0435953219536</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -1571,10 +1571,10 @@
         <v>995.6275000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>1004.7275</v>
+        <v>1004.8575</v>
       </c>
       <c r="E57" t="n">
-        <v>62.57006692030252</v>
+        <v>63.5740118172388</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>995.9186</v>
       </c>
       <c r="D58" t="n">
-        <v>1003.2186</v>
+        <v>997.6686</v>
       </c>
       <c r="E58" t="n">
-        <v>58.36469555633445</v>
+        <v>20.58164784695844</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -1611,10 +1611,10 @@
         <v>996.2168</v>
       </c>
       <c r="D59" t="n">
-        <v>1003.4168</v>
+        <v>1004.8568</v>
       </c>
       <c r="E59" t="n">
-        <v>53.2646456014373</v>
+        <v>63.16293908551633</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -1631,10 +1631,10 @@
         <v>996.3886</v>
       </c>
       <c r="D60" t="n">
-        <v>1002.4886</v>
+        <v>997.2186</v>
       </c>
       <c r="E60" t="n">
-        <v>45.19210326637069</v>
+        <v>11.94546882854323</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>996.7613</v>
       </c>
       <c r="D61" t="n">
-        <v>1004.7113</v>
+        <v>1004.8513</v>
       </c>
       <c r="E61" t="n">
-        <v>58.73616048219829</v>
+        <v>60.03389243242995</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -1671,10 +1671,10 @@
         <v>996.9874</v>
       </c>
       <c r="D62" t="n">
-        <v>1004.7374</v>
+        <v>1004.9074</v>
       </c>
       <c r="E62" t="n">
-        <v>64.22094752936705</v>
+        <v>66.07473352045518</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>997.4262</v>
       </c>
       <c r="D63" t="n">
-        <v>1004.7262</v>
+        <v>999.0762</v>
       </c>
       <c r="E63" t="n">
-        <v>61.05285136327872</v>
+        <v>24.15514188849682</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>997.5204</v>
       </c>
       <c r="D64" t="n">
-        <v>1002.5704</v>
+        <v>998.9404</v>
       </c>
       <c r="E64" t="n">
-        <v>49.83933957771185</v>
+        <v>22.73983133907875</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>997.7194</v>
       </c>
       <c r="D65" t="n">
-        <v>1002.8694</v>
+        <v>999.0594</v>
       </c>
       <c r="E65" t="n">
-        <v>49.34499853866458</v>
+        <v>21.81105072874878</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>997.7859999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>1004.586</v>
+        <v>998.9359999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>56.94797567168994</v>
+        <v>18.60283617604643</v>
       </c>
       <c r="F66" t="inlineStr"/>
     </row>
